--- a/recipes/croissants/sourdough_croissant_community.xlsx
+++ b/recipes/croissants/sourdough_croissant_community.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
   <si>
     <t>autolyze</t>
   </si>
@@ -559,6 +559,54 @@
   </si>
   <si>
     <t>72 F</t>
+  </si>
+  <si>
+    <t>not really, stack to my version of it</t>
+  </si>
+  <si>
+    <t>6 medium croissants</t>
+  </si>
+  <si>
+    <t>risen very little, no noticeable rise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not good, taste is not sourdoughy </t>
+  </si>
+  <si>
+    <t>80% king arthur, 20% AP</t>
+  </si>
+  <si>
+    <t>mixed with salt, in 30 minutes mixed butter and refrigerated for several days. Butter packet on third day. Butter from whole foods. Folding 3 times, one turn per session, so 3 turns in all. Dough was torn a little bit, so folding step might be bad, but the dough and butter were kept cold</t>
+  </si>
+  <si>
+    <t>3  times, once pr cycle</t>
+  </si>
+  <si>
+    <t>1 hour on tabletop, then in fridge all the time</t>
+  </si>
+  <si>
+    <t>from 9 pm to 10 am, 76 F in th eproofer</t>
+  </si>
+  <si>
+    <t>taste is good, sourdough taste</t>
+  </si>
+  <si>
+    <t>100% king arthur, whole foods 365 butter</t>
+  </si>
+  <si>
+    <t>mixed without salt, left for an hour, added salt with kneding, then added 25 gr butter, refrigerated overnight. Next day added the butter packet, 1 roll in an hour( 1 turn, shaped quite flat, 20x20 size rectangle), second turn in 30 min, third turn 30 min, refrigerated for a night. Baked on Jul 8</t>
+  </si>
+  <si>
+    <t>careful with lamination, but still leaked butter</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>from 8:30 pm to 8:30 am, 72 F on tabletop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 medium croissants, 1 , not opened well, possibly underproofed? Not risen well, but inside has the layers, which are not opened. </t>
   </si>
 </sst>
 </file>
@@ -627,8 +675,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -749,7 +803,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -802,6 +856,9 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -854,6 +911,9 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1183,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y13"/>
+  <dimension ref="B1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="V11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -1220,7 +1280,7 @@
     <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="4" customFormat="1" ht="104" customHeight="1">
+    <row r="1" spans="2:25" s="4" customFormat="1" ht="90" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="146" customHeight="1">
+    <row r="2" spans="2:25" ht="45" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
@@ -1795,6 +1855,118 @@
       </c>
       <c r="V13" s="1" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="224">
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43621</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V14" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="252">
+      <c r="B15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43622</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P15" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V15" s="1">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/recipes/croissants/sourdough_croissant_community.xlsx
+++ b/recipes/croissants/sourdough_croissant_community.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="204">
   <si>
     <t>autolyze</t>
   </si>
@@ -607,6 +607,33 @@
   </si>
   <si>
     <t xml:space="preserve">7 medium croissants, 1 , not opened well, possibly underproofed? Not risen well, but inside has the layers, which are not opened. </t>
+  </si>
+  <si>
+    <t>used almost all KAB flour, half the community recipe, half water/haf milk, double amount of starter</t>
+  </si>
+  <si>
+    <t>twice size from initial</t>
+  </si>
+  <si>
+    <t>9 medium croissants, 1 , very good rise, Sergei was very happy, ideal croissant</t>
+  </si>
+  <si>
+    <t>just roughly mixed without salt, left overnight, in refrigerator, in 36 hours added salt with kneading, then added 30 gr butter, refrigerated overnight. Next day added the butter packet, 1 roll in an hour( 1 turn, shaped quite flat, 20x20 size rectangle), second turn in 30 min, third turn 30 min, refrigerated for a night. Baked on sep 19. The packet was very well sealed in plastic wrap and dough was elastic, so butter packeting did not tear</t>
+  </si>
+  <si>
+    <t>no butter leakage</t>
+  </si>
+  <si>
+    <t>heated to 500, put in and waited for a minute, then put to 350 F, baked for 350 until golden, 40 + min</t>
+  </si>
+  <si>
+    <t>36 hours</t>
+  </si>
+  <si>
+    <t>6 hours in proofer at 80 F</t>
+  </si>
+  <si>
+    <t>covered with yolk liquified with milk</t>
   </si>
 </sst>
 </file>
@@ -675,8 +702,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -803,7 +832,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -859,6 +888,7 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -914,6 +944,7 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1243,13 +1274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y15"/>
+  <dimension ref="B1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="V16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -1967,6 +1998,62 @@
       </c>
       <c r="V15" s="1">
         <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="336">
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43726</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V16" s="1">
+        <v>76</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
